--- a/C00KSI_0426/C00KSI_Gyak10.xlsx
+++ b/C00KSI_0426/C00KSI_Gyak10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Miskolc 2.0\2021 Tavasz\OS\OS\Gyak\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Miskolc 2.0\2021 Tavasz\OS\Feladatok\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="21">
   <si>
     <t>R1</t>
   </si>
@@ -59,16 +59,34 @@
     <t>Kielegitlen igenyek</t>
   </si>
   <si>
-    <t>Foglaltak</t>
-  </si>
-  <si>
-    <t>Öszesen</t>
-  </si>
-  <si>
-    <t>Szabad ef.szam</t>
-  </si>
-  <si>
-    <t>Készlet-igeny</t>
+    <t>Holpont nélkül lefut: p1, p2, p3, p4, p0</t>
+  </si>
+  <si>
+    <t>Teljes res</t>
+  </si>
+  <si>
+    <t>Szabad res</t>
+  </si>
+  <si>
+    <t>Mivel nincs egy olyan P sem, amely feltételének eleget tudunk tenni, ezért nem tud lefutni</t>
+  </si>
+  <si>
+    <t>p4(3,3,0) eset</t>
+  </si>
+  <si>
+    <t>P0(0,2,0) eset</t>
+  </si>
+  <si>
+    <t>Holtpont nélkül ami le  tud futni: p3, p1, p2, p4, p0</t>
+  </si>
+  <si>
+    <t>Első körben  p3 tud lefutni</t>
+  </si>
+  <si>
+    <t>Utána csak a p1 tud lefutni</t>
+  </si>
+  <si>
+    <t>P1 után bárhogyan osztjuk el az erőforrást, nem lesz holtpont</t>
   </si>
 </sst>
 </file>
@@ -389,13 +407,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -408,11 +429,11 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -433,13 +454,13 @@
       <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
-        <v>0</v>
-      </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -460,18 +481,21 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="J3">
+        <f>B3-F3</f>
         <v>7</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
       <c r="K3">
+        <f t="shared" ref="K3:L7" si="0">C3-G3</f>
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -497,13 +521,16 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
       <c r="J4">
-        <v>2</v>
+        <f t="shared" ref="J4:J6" si="1">B4-F4</f>
+        <v>1</v>
       </c>
       <c r="K4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -529,13 +556,16 @@
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -561,13 +591,16 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -591,133 +624,647 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f>B7-F7</f>
         <v>4</v>
       </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <f>B10-SUM(F3:F7)</f>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:D11" si="2">C10-SUM(G3:G7)</f>
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <f>D10-SUM(H3:H7)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="G9">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>B16-F16</f>
+        <v>7</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:L20" si="3">C16-G16</f>
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J20" si="4">B17-F17</f>
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
         <v>5</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="D23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <f>B23-SUM(F16:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24" si="5">C23-SUM(G16:G20)</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>D23-SUM(H16:H20)</f>
+        <v>2</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>B29-F29</f>
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K33" si="6">C29-G29</f>
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29:L33" si="7">D29-H29</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:J33" si="8">B30-F30</f>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>12</v>
       </c>
-      <c r="F10">
+      <c r="B36">
         <v>10</v>
       </c>
-      <c r="G10">
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="H10">
+      <c r="D36">
         <v>7</v>
       </c>
-      <c r="J10" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+      <c r="G36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>13</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>-4</v>
-      </c>
-      <c r="K11">
-        <v>-1</v>
-      </c>
-      <c r="L11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>-1</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J13">
-        <v>-3</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J15">
-        <v>-1</v>
-      </c>
-      <c r="K15">
-        <v>-2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
+      <c r="B37">
+        <f>B36-SUM(F29:F33)</f>
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37" si="9">C36-SUM(G29:G33)</f>
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <f>D36-SUM(H29:H33)</f>
+        <v>2</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="18">
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="G37:L37"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="F24:O24"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="J27:L27"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
